--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="222">
   <si>
     <t>土地坐落</t>
   </si>
@@ -432,6 +432,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>彰化第五信用合作社</t>
   </si>
   <si>
@@ -445,6 +454,9 @@
   </si>
   <si>
     <t>■100</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2563,13 +2575,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
@@ -2588,13 +2600,22 @@
       <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2611,13 +2632,22 @@
       <c r="G2" s="2">
         <v>70000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2634,13 +2664,22 @@
       <c r="G3" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2657,13 +2696,22 @@
       <c r="G4" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2680,19 +2728,28 @@
       <c r="G5" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -2702,6 +2759,15 @@
       </c>
       <c r="G6" s="2">
         <v>10000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>
@@ -2719,22 +2785,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -2745,13 +2811,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -2760,7 +2826,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -2771,13 +2837,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -2797,13 +2863,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -2823,13 +2889,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -2849,13 +2915,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -2875,13 +2941,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -2901,13 +2967,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -2927,13 +2993,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -2953,13 +3019,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -2979,13 +3045,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -3005,13 +3071,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -3031,13 +3097,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -3057,13 +3123,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3083,13 +3149,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -3109,13 +3175,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -3135,13 +3201,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -3161,13 +3227,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -3187,13 +3253,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -3213,13 +3279,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -3249,16 +3315,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3266,7 +3332,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3293,16 +3359,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3310,16 +3376,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3327,16 +3393,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3344,16 +3410,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3361,16 +3427,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3378,16 +3444,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3395,16 +3461,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3412,16 +3478,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3429,16 +3495,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3446,16 +3512,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3463,16 +3529,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3480,16 +3546,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3497,16 +3563,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3514,16 +3580,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3531,16 +3597,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3548,16 +3614,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3565,16 +3631,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3582,16 +3648,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3599,16 +3665,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3629,19 +3695,19 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3649,19 +3715,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>53</v>
@@ -3672,19 +3738,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>53</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="224">
   <si>
     <t>土地坐落</t>
   </si>
@@ -432,6 +432,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -454,6 +457,9 @@
   </si>
   <si>
     <t>■100</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-21</t>
@@ -2575,13 +2581,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
@@ -2609,13 +2615,16 @@
       <c r="J1" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2633,21 +2642,24 @@
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2665,21 +2677,24 @@
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2697,21 +2712,24 @@
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2729,27 +2747,30 @@
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -2761,12 +2782,15 @@
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1338</v>
       </c>
     </row>
@@ -2785,22 +2809,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -2811,13 +2835,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -2826,7 +2850,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -2837,13 +2861,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -2863,13 +2887,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -2889,13 +2913,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -2915,13 +2939,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -2941,13 +2965,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -2967,13 +2991,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -2993,13 +3017,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -3019,13 +3043,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -3045,13 +3069,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -3071,13 +3095,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -3097,13 +3121,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -3123,13 +3147,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3149,13 +3173,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -3175,13 +3199,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -3201,13 +3225,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -3227,13 +3251,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -3253,13 +3277,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -3279,13 +3303,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -3315,16 +3339,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3332,7 +3356,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3359,16 +3383,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3376,16 +3400,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3393,16 +3417,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3410,16 +3434,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,16 +3451,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3444,16 +3468,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3461,16 +3485,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3478,16 +3502,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3495,16 +3519,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3512,16 +3536,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3529,16 +3553,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3546,16 +3570,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3563,16 +3587,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3580,16 +3604,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3597,16 +3621,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3614,16 +3638,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3631,16 +3655,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3648,16 +3672,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3665,16 +3689,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3695,19 +3719,19 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3715,19 +3739,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>53</v>
@@ -3738,19 +3762,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>53</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="229">
   <si>
     <t>土地坐落</t>
   </si>
@@ -435,6 +435,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -444,6 +447,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>彰化第五信用合作社</t>
   </si>
   <si>
@@ -456,13 +465,19 @@
     <t>彰化第十信用合作社</t>
   </si>
   <si>
-    <t>■100</t>
+    <t>100</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpc7221</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2581,13 +2596,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
@@ -2618,13 +2633,22 @@
       <c r="K1" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2642,24 +2666,33 @@
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2677,24 +2710,33 @@
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2712,24 +2754,33 @@
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2747,30 +2798,39 @@
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -2782,16 +2842,25 @@
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1338</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2809,22 +2878,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -2835,13 +2904,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -2850,7 +2919,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -2861,13 +2930,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -2887,13 +2956,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -2913,13 +2982,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -2939,13 +3008,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -2965,13 +3034,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -2991,13 +3060,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -3017,13 +3086,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -3043,13 +3112,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -3069,13 +3138,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -3095,13 +3164,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -3121,13 +3190,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -3147,13 +3216,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3173,13 +3242,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -3199,13 +3268,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -3225,13 +3294,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -3251,13 +3320,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -3277,13 +3346,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -3303,13 +3372,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -3339,16 +3408,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3356,7 +3425,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3383,16 +3452,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3400,16 +3469,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3417,16 +3486,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3434,16 +3503,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3451,16 +3520,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3468,16 +3537,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3485,16 +3554,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3502,16 +3571,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3519,16 +3588,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3536,16 +3605,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3553,16 +3622,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3570,16 +3639,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3587,16 +3656,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3604,16 +3673,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3621,16 +3690,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3638,16 +3707,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3655,16 +3724,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3672,16 +3741,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3689,16 +3758,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3719,19 +3788,19 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3739,19 +3808,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>53</v>
@@ -3762,19 +3831,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>53</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,9 +22,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="229">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="230">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市萬興段07870000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01280000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01290000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段04040000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段04040001地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段08000000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段03350039地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段04700000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段03390005地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段03390006地號</t>
+  </si>
+  <si>
+    <t>彰化縣芬園鄉清水段01340000地號</t>
+  </si>
+  <si>
+    <t>彰化縣芬園鄉清水段01450000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南興段03640001地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南興段03640002地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段01600065地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市箣桐段09030000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市孔門段06250000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市孔門段06290000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市孔門段06300000地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠信段01180000地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之30</t>
+  </si>
+  <si>
+    <t>林滄敏</t>
+  </si>
+  <si>
+    <t>林施金玉</t>
+  </si>
+  <si>
+    <t>林施金5</t>
+  </si>
+  <si>
+    <t>81年03月20日</t>
+  </si>
+  <si>
+    <t>81年05月19日</t>
+  </si>
+  <si>
+    <t>78年12月11曰</t>
+  </si>
+  <si>
+    <t>79年05月02日</t>
+  </si>
+  <si>
+    <t>81年10月19日</t>
+  </si>
+  <si>
+    <t>78年05月09日</t>
+  </si>
+  <si>
+    <t>84年12月23日</t>
+  </si>
+  <si>
+    <t>85年05月20日</t>
+  </si>
+  <si>
+    <t>86年03月28曰</t>
+  </si>
+  <si>
+    <t>85年06月05日</t>
+  </si>
+  <si>
+    <t>89年01月12日</t>
+  </si>
+  <si>
+    <t>87年06月18日</t>
+  </si>
+  <si>
+    <t>88年10月</t>
+  </si>
+  <si>
+    <t>88年10月29日</t>
+  </si>
+  <si>
+    <t>88年06月08日</t>
+  </si>
+  <si>
+    <t>94年08月19日</t>
+  </si>
+  <si>
+    <t>94年05月18曰</t>
+  </si>
+  <si>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>CUTafcy貝賣</t>
+  </si>
+  <si>
+    <t>rmpfap貝賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝幵年）</t>
+  </si>
+  <si>
+    <t>(超過五年).</t>
+  </si>
+  <si>
+    <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpc7221</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,256 +264,85 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣彰化市萬興段0787-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段0128-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段0129-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0404-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0404-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0800-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0335-0039 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0470-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 0339-0005 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 0339-0006 地號</t>
-  </si>
-  <si>
-    <t>彰化縣芬園鄉清水段0134-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣芬園鄉清水段0145-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南興段0364-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南興段0364-0002 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 0160-0065 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市箣桐段0903-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市孔門段0625-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市孔門段0629-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市孔門段0630-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠信段0118-0000 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 30</t>
-  </si>
-  <si>
-    <t>林滄敏</t>
-  </si>
-  <si>
-    <t>林施金玉</t>
-  </si>
-  <si>
-    <t>林施金5</t>
-  </si>
-  <si>
-    <t>81年03月 20日</t>
-  </si>
-  <si>
-    <t>81年05月 19日</t>
-  </si>
-  <si>
-    <t>78年12月 11曰</t>
-  </si>
-  <si>
-    <t>79年05月 02日</t>
-  </si>
-  <si>
-    <t>81年10月 19日</t>
-  </si>
-  <si>
-    <t>78年05月 09日</t>
-  </si>
-  <si>
-    <t>84年12月 23日</t>
-  </si>
-  <si>
-    <t>85年05月 20日</t>
-  </si>
-  <si>
-    <t>86年03月 28曰</t>
-  </si>
-  <si>
-    <t>85年06月 05日</t>
-  </si>
-  <si>
-    <t>89年01月 12日</t>
-  </si>
-  <si>
-    <t>87年06月 18日</t>
-  </si>
-  <si>
-    <t>88年10月</t>
-  </si>
-  <si>
-    <t>88年10月 29日</t>
-  </si>
-  <si>
-    <t>88年06月 08日</t>
-  </si>
-  <si>
-    <t>94年08月 19日</t>
-  </si>
-  <si>
-    <t>94年05月 18曰</t>
-  </si>
-  <si>
-    <t>95年11月 08日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>CUTafcy 貝賣</t>
-  </si>
-  <si>
-    <t>r-m-pfap 貝賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝幵年）</t>
-  </si>
-  <si>
-    <t>(超過五年).</t>
-  </si>
-  <si>
-    <t>(超堝石年)</t>
-  </si>
-  <si>
-    <t>(超堝幵年）'</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市田中央段 00041-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00931-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段01345-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段02295-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00763-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00486-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 09622-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 09623-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 06598-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 06597-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市箣桐段01058-000 建號 . ..</t>
+    <t>彰化縣彰化市田中央段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00931000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01345000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段02295000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00763000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00486000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段09622000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段09623000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段06598000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段06597000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市箣桐段01058000建號...</t>
   </si>
   <si>
     <t>彰化縣彰化市中山路</t>
   </si>
   <si>
-    <t>臺中市南屯區惠信段01788-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市光南里16鄰中興 路</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠信段01885-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之338</t>
-  </si>
-  <si>
-    <t>83.年09月 22日</t>
-  </si>
-  <si>
-    <t>S6年03月 28日</t>
-  </si>
-  <si>
-    <t>88年10.月 29日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>0X7 貝賣</t>
-  </si>
-  <si>
-    <t>(土地向 國有財產 局承租）</t>
-  </si>
-  <si>
-    <t>(超過五年，屋 頂突出物）</t>
-  </si>
-  <si>
-    <t>(超過五年，陽 台等5項）</t>
-  </si>
-  <si>
-    <t>(超過五年，未 保存）</t>
-  </si>
-  <si>
-    <t>1,308,934(1^ 台,雨遮）</t>
-  </si>
-  <si>
-    <t>213’234(公共 設施）</t>
+    <t>臺中市南屯區惠信段01788000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市光南里16鄰中興路</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠信段01885000建號</t>
+  </si>
+  <si>
+    <t>100000分之338</t>
+  </si>
+  <si>
+    <t>83.年09月22日</t>
+  </si>
+  <si>
+    <t>S6年03月28日</t>
+  </si>
+  <si>
+    <t>88年10.月29日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>0X7貝賣</t>
+  </si>
+  <si>
+    <t>(土地向國有財產局承租）</t>
+  </si>
+  <si>
+    <t>(超過五年屋頂突出物）</t>
+  </si>
+  <si>
+    <t>(超過五年陽台等5項）</t>
+  </si>
+  <si>
+    <t>(超過五年未保存）</t>
+  </si>
+  <si>
+    <t>1308934(1台雨遮）</t>
+  </si>
+  <si>
+    <t>213234(公共設施）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -321,19 +369,19 @@
     <t>賓士</t>
   </si>
   <si>
-    <t>93年08月 10日</t>
-  </si>
-  <si>
-    <t>90年09月 19日</t>
-  </si>
-  <si>
-    <t>96年10月 03日</t>
-  </si>
-  <si>
-    <t>95年02月 20日</t>
-  </si>
-  <si>
-    <t>96年05月 25日</t>
+    <t>93年08月10日</t>
+  </si>
+  <si>
+    <t>90年09月19日</t>
+  </si>
+  <si>
+    <t>96年10月03日</t>
+  </si>
+  <si>
+    <t>95年02月20日</t>
+  </si>
+  <si>
+    <t>96年05月25日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -354,34 +402,34 @@
     <t>臺灣銀行彰化分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行彰營分 行</t>
+    <t>合作金庫商業銀行彰營分行</t>
   </si>
   <si>
     <t>臺灣土地銀行彰化分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行中彰分 行</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社營業 部</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社旭光 分社</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社營業 部</t>
+    <t>國泰世華商業銀行中彰分行</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社營業部</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社旭光分社</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社營業部</t>
   </si>
   <si>
     <t>元大商業銀行彰化分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司彰 化光復路郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南彰化 分行</t>
-  </si>
-  <si>
-    <t>彰化市農會大竹里彰南分 社</t>
+    <t>中華郵政股份有限公司彰化光復路郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南彰化分行</t>
+  </si>
+  <si>
+    <t>彰化市農會大竹里彰南分社</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -393,9 +441,6 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>'活期儲蓄存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -411,15 +456,6 @@
     <t>林纖</t>
   </si>
   <si>
-    <t>林施金'玉</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -432,27 +468,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>彰化第五信用合作社</t>
   </si>
   <si>
@@ -471,15 +486,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpc7221</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -507,13 +513,13 @@
     <t>蘭坦#司債</t>
   </si>
   <si>
-    <t>霸菱全球資源-美元</t>
+    <t>霸菱全球資源美元</t>
   </si>
   <si>
     <t>霸菱拉丁美洲</t>
   </si>
   <si>
-    <t>先機亞太股票基 金美元</t>
+    <t>先機亞太股票基金美元</t>
   </si>
   <si>
     <t>首域印度基金</t>
@@ -522,25 +528,25 @@
     <t>景順中國基金</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓 拉丁美</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 東歐美</t>
-  </si>
-  <si>
-    <t>保德信亞洲新興 債累積</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 亞洲成</t>
+    <t>富蘭克林坦伯頓拉丁美</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓東歐美</t>
+  </si>
+  <si>
+    <t>保德信亞洲新興債累積</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成</t>
   </si>
   <si>
     <t>保誠印尼基金</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓 大中華基金'</t>
-  </si>
-  <si>
-    <t>摩根富林天然資 源美元</t>
+    <t>富蘭克林坦伯頓大中華基金</t>
+  </si>
+  <si>
+    <t>摩根富林天然資源美元</t>
   </si>
   <si>
     <t>原物料投資美</t>
@@ -555,7 +561,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -591,7 +597,7 @@
     <t>定期终生壽險</t>
   </si>
   <si>
-    <t>郵政簡易人壽六年期吉利保 險</t>
+    <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
     <t>郵政簡易人壽步步高升保險</t>
@@ -612,7 +618,7 @@
     <t>312.還本终身保險</t>
   </si>
   <si>
-    <t>富貴保本投資鏈結壽險(甲型 )</t>
+    <t>富貴保本投資鏈結壽險(甲型)</t>
   </si>
   <si>
     <t>國泰富利年年終身保險</t>
@@ -627,61 +633,58 @@
     <t>安聯人壽精選普爾</t>
   </si>
   <si>
-    <t>林施金玉 ,</t>
-  </si>
-  <si>
-    <t>保險期間:79.12.21至終身， 繳費期間20年,年繳152371 元</t>
-  </si>
-  <si>
-    <t>保險期間:99.4.6至105.4.6, 六年,年繳165700元</t>
-  </si>
-  <si>
-    <t>保險期間:99.4.6至105.4.6, 六年，年繳163800元</t>
-  </si>
-  <si>
-    <t>保險期間：97.6.12至 103.6.12,六年，年繳 283602 元</t>
-  </si>
-  <si>
-    <t>保險期間：97.6.12至 103.6.12,六年,年繳 2.82858 元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至104.2.2, 六年，年缴98280元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至104.2.2, 六年，年缴99420元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至终身， 缴費期間,20年，年繳3480元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至终身， 繳費期間,20年,年繳2380元</t>
-  </si>
-  <si>
-    <t>保險期間:94.9.5至153.9.5， 月繳20000元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身， 繳費期間,20年，年繳90734 元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至终身， 繳費期間，20年，年繳91745 元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身， 繳費期間,20年，年缴88248 元</t>
-  </si>
-  <si>
-    <t>保險期:94.8.26 至 101.9.13, 躉繳100萬</t>
-  </si>
-  <si>
-    <t>保險期:98.2.26 至 108.2.26, 繳費期間，10年,年繳266500 元</t>
-  </si>
-  <si>
-    <t>保險期:98.2.26 至 108.2.26, 缴費期間，10年,年繳114780 元</t>
-  </si>
-  <si>
-    <t>96.3.29 至 106.3.29，躉繳 100萬</t>
-  </si>
-  <si>
-    <t>97.6.19 至 164.6.19,躉繳 1788703元</t>
+    <t>保險期間:79.12.21至終身繳費期間20年年繳152371元</t>
+  </si>
+  <si>
+    <t>保險期間:99.4.6至105.4.6六年年繳165700元</t>
+  </si>
+  <si>
+    <t>保險期間:99.4.6至105.4.6六年年繳163800元</t>
+  </si>
+  <si>
+    <t>保險期間：97.6.12至103.6.12六年年繳283602元</t>
+  </si>
+  <si>
+    <t>保險期間：97.6.12至103.6.12六年年繳2.82858元</t>
+  </si>
+  <si>
+    <t>保險期間:98.2.3至104.2.2六年年缴98280元</t>
+  </si>
+  <si>
+    <t>保險期間:98.2.3至104.2.2六年年缴99420元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至终身缴費期間20年年繳3480元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至终身繳費期間20年年繳2380元</t>
+  </si>
+  <si>
+    <t>保險期間:94.9.5至153.9.5月繳20000元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至終身繳費期間20年年繳90734元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至终身繳費期間20年年繳91745元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至終身繳費期間20年年缴88248元</t>
+  </si>
+  <si>
+    <t>保險期:94.8.26至101.9.13躉繳100萬</t>
+  </si>
+  <si>
+    <t>保險期:98.2.26至108.2.26繳費期間10年年繳266500元</t>
+  </si>
+  <si>
+    <t>保險期:98.2.26至108.2.26缴費期間10年年繳114780元</t>
+  </si>
+  <si>
+    <t>96.3.29至106.3.29躉繳100萬</t>
+  </si>
+  <si>
+    <t>97.6.19至164.6.19躉繳1788703元</t>
   </si>
   <si>
     <t>債務人</t>
@@ -702,13 +705,13 @@
     <t>抵押貸款</t>
   </si>
   <si>
-    <t>合作金庫商業銀行彰營分行 彰化縣彰化市曉陽路</t>
-  </si>
-  <si>
-    <t>99年07月 30日</t>
-  </si>
-  <si>
-    <t>94年05月 25日</t>
+    <t>合作金庫商業銀行彰營分行彰化縣彰化市曉陽路</t>
+  </si>
+  <si>
+    <t>99年07月30日</t>
+  </si>
+  <si>
+    <t>94年05月25日</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,551 +1098,1013 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1555.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1269</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>375.92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>642</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>1800</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="2">
         <v>32</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2">
         <v>15136450</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>175</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2">
         <v>12770975</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2">
         <v>12187554</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>7389.18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H22" s="2">
         <v>1003458</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1657,25 +2122,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1683,25 +2148,25 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>330.91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1709,25 +2174,25 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2">
         <v>131.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1735,25 +2200,25 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
         <v>87.4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1761,25 +2226,25 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>1167.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1787,25 +2252,25 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1813,25 +2278,25 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <v>111.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1839,25 +2304,25 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2">
         <v>291.3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1865,25 +2330,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
         <v>383.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1891,25 +2356,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2">
         <v>228.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1917,25 +2382,25 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2">
         <v>228.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1943,25 +2408,25 @@
         <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2">
         <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1969,25 +2434,25 @@
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2">
         <v>728</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1995,25 +2460,25 @@
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2">
         <v>224.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2021,25 +2486,25 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2">
         <v>132.8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2047,25 +2512,25 @@
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2">
         <v>28275.55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2083,22 +2548,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2106,19 +2571,19 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>809000</v>
@@ -2129,22 +2594,22 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2">
         <v>2164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2152,19 +2617,19 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <v>3456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>1776000</v>
@@ -2175,19 +2640,19 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>1794</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>572000</v>
@@ -2198,19 +2663,19 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2">
         <v>3498</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>3212000</v>
@@ -2231,22 +2696,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2254,16 +2719,16 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2275,16 +2740,16 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2296,16 +2761,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2317,16 +2782,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2338,16 +2803,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2359,16 +2824,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2380,16 +2845,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2401,16 +2866,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2422,16 +2887,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2443,16 +2908,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2464,16 +2929,16 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2485,16 +2950,16 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2506,16 +2971,16 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2527,16 +2992,16 @@
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2">
         <v>41943.84</v>
@@ -2550,16 +3015,16 @@
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2571,16 +3036,16 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2">
         <v>1347.21</v>
@@ -2604,43 +3069,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2648,10 +3113,10 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
         <v>700</v>
@@ -2660,28 +3125,28 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
         <v>106</v>
@@ -2692,10 +3157,10 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -2704,28 +3169,28 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2">
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
         <v>107</v>
@@ -2736,10 +3201,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>30000</v>
@@ -2748,28 +3213,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2">
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2">
         <v>108</v>
@@ -2780,10 +3245,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -2792,28 +3257,28 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2">
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2">
         <v>109</v>
@@ -2824,40 +3289,40 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2">
         <v>1338</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2">
         <v>110</v>
@@ -2878,25 +3343,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2904,13 +3369,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -2919,7 +3384,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -2930,13 +3395,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -2945,7 +3410,7 @@
         <v>17.81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2">
         <v>97950.63</v>
@@ -2956,13 +3421,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -2971,7 +3436,7 @@
         <v>22.93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2">
         <v>111621.54</v>
@@ -2982,13 +3447,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -2997,7 +3462,7 @@
         <v>22.93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2">
         <v>150672.08</v>
@@ -3008,13 +3473,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -3023,7 +3488,7 @@
         <v>6.53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2">
         <v>37502.28</v>
@@ -3034,13 +3499,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -3049,7 +3514,7 @@
         <v>24.44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2">
         <v>80508.63</v>
@@ -3060,13 +3525,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -3075,7 +3540,7 @@
         <v>43.84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2">
         <v>103883.26</v>
@@ -3086,13 +3551,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -3101,7 +3566,7 @@
         <v>2.7457</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2">
         <v>56767.24</v>
@@ -3112,13 +3577,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -3127,7 +3592,7 @@
         <v>38.48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2">
         <v>128111.3</v>
@@ -3138,13 +3603,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -3153,7 +3618,7 @@
         <v>40.66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2">
         <v>115211.99</v>
@@ -3164,13 +3629,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -3179,7 +3644,7 @@
         <v>69.37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2">
         <v>119659.15</v>
@@ -3190,13 +3655,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -3205,7 +3670,7 @@
         <v>25.09</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2">
         <v>94335.78</v>
@@ -3216,13 +3681,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3231,7 +3696,7 @@
         <v>9.95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H14" s="2">
         <v>497500</v>
@@ -3242,13 +3707,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -3257,7 +3722,7 @@
         <v>28.04</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H15" s="2">
         <v>64075.44</v>
@@ -3268,13 +3733,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -3283,7 +3748,7 @@
         <v>17.854</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2">
         <v>70439.36</v>
@@ -3294,13 +3759,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -3309,7 +3774,7 @@
         <v>21.18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H17" s="2">
         <v>61977.61</v>
@@ -3320,13 +3785,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -3335,7 +3800,7 @@
         <v>16.12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2">
         <v>60575.37</v>
@@ -3346,13 +3811,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -3361,7 +3826,7 @@
         <v>893.87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2">
         <v>61291.91</v>
@@ -3372,13 +3837,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -3387,7 +3852,7 @@
         <v>90.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2">
         <v>128983.55</v>
@@ -3408,16 +3873,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3425,13 +3890,13 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>400000</v>
@@ -3452,16 +3917,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3469,16 +3934,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3486,16 +3951,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3503,16 +3968,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3520,16 +3985,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3537,16 +4002,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3554,16 +4019,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3571,16 +4036,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3588,16 +4053,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3605,16 +4070,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3622,16 +4087,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3639,16 +4104,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3656,16 +4121,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3673,16 +4138,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3690,16 +4155,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3707,16 +4172,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3724,16 +4189,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3741,16 +4206,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3758,16 +4223,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3785,22 +4250,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3808,22 +4273,22 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3831,22 +4296,22 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="197">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣彰化市萬興段07870000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>彰化縣彰化市延和段01280000地號</t>
@@ -129,144 +132,123 @@
     <t>臺中市南屯區惠信段01180000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之30</t>
+  </si>
+  <si>
+    <t>林滄敏</t>
+  </si>
+  <si>
+    <t>林施金玉</t>
+  </si>
+  <si>
+    <t>林施金5</t>
+  </si>
+  <si>
+    <t>81年05月19日</t>
+  </si>
+  <si>
+    <t>78年12月11曰</t>
+  </si>
+  <si>
+    <t>79年05月02日</t>
+  </si>
+  <si>
+    <t>81年10月19日</t>
+  </si>
+  <si>
+    <t>78年05月09日</t>
+  </si>
+  <si>
+    <t>84年12月23日</t>
+  </si>
+  <si>
+    <t>85年05月20日</t>
+  </si>
+  <si>
+    <t>86年03月28曰</t>
+  </si>
+  <si>
+    <t>85年06月05日</t>
+  </si>
+  <si>
+    <t>89年01月12日</t>
+  </si>
+  <si>
+    <t>87年06月18日</t>
+  </si>
+  <si>
+    <t>88年10月</t>
+  </si>
+  <si>
+    <t>88年10月29日</t>
+  </si>
+  <si>
+    <t>88年06月08日</t>
+  </si>
+  <si>
+    <t>94年08月19日</t>
+  </si>
+  <si>
+    <t>94年05月18曰</t>
+  </si>
+  <si>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>CUTafcy貝賣</t>
+  </si>
+  <si>
+    <t>rmpfap貝賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝幵年）</t>
+  </si>
+  <si>
+    <t>(超過五年).</t>
+  </si>
+  <si>
+    <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpc7221</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市田中央段00041000建號</t>
+  </si>
+  <si>
     <t>4分之1</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之30</t>
-  </si>
-  <si>
-    <t>林滄敏</t>
-  </si>
-  <si>
-    <t>林施金玉</t>
-  </si>
-  <si>
-    <t>林施金5</t>
-  </si>
-  <si>
     <t>81年03月20日</t>
   </si>
   <si>
-    <t>81年05月19日</t>
-  </si>
-  <si>
-    <t>78年12月11曰</t>
-  </si>
-  <si>
-    <t>79年05月02日</t>
-  </si>
-  <si>
-    <t>81年10月19日</t>
-  </si>
-  <si>
-    <t>78年05月09日</t>
-  </si>
-  <si>
-    <t>84年12月23日</t>
-  </si>
-  <si>
-    <t>85年05月20日</t>
-  </si>
-  <si>
-    <t>86年03月28曰</t>
-  </si>
-  <si>
-    <t>85年06月05日</t>
-  </si>
-  <si>
-    <t>89年01月12日</t>
-  </si>
-  <si>
-    <t>87年06月18日</t>
-  </si>
-  <si>
-    <t>88年10月</t>
-  </si>
-  <si>
-    <t>88年10月29日</t>
-  </si>
-  <si>
-    <t>88年06月08日</t>
-  </si>
-  <si>
-    <t>94年08月19日</t>
-  </si>
-  <si>
-    <t>94年05月18曰</t>
-  </si>
-  <si>
-    <t>95年11月08日</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>CUTafcy貝賣</t>
-  </si>
-  <si>
-    <t>rmpfap貝賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝幵年）</t>
-  </si>
-  <si>
-    <t>(超過五年).</t>
-  </si>
-  <si>
-    <t>(超堝石年)</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpc7221</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市田中央段00041000建號</t>
-  </si>
-  <si>
     <t>彰化縣彰化市延平段00931000建號</t>
   </si>
   <si>
@@ -345,18 +327,12 @@
     <t>213234(公共設施）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>中華</t>
   </si>
   <si>
+    <t>93年08月10日</t>
+  </si>
+  <si>
     <t>TOYOTA</t>
   </si>
   <si>
@@ -369,9 +345,6 @@
     <t>賓士</t>
   </si>
   <si>
-    <t>93年08月10日</t>
-  </si>
-  <si>
     <t>90年09月19日</t>
   </si>
   <si>
@@ -384,24 +357,15 @@
     <t>96年05月25日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行彰化分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行彰營分行</t>
   </si>
   <si>
@@ -432,18 +396,12 @@
     <t>彰化市農會大竹里彰南分社</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -465,12 +423,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社</t>
-  </si>
-  <si>
     <t>彰條一信用合作社</t>
   </si>
   <si>
@@ -486,24 +438,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投.資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>JF東協基金</t>
   </si>
   <si>
+    <t>元大商業銀行</t>
+  </si>
+  <si>
+    <t>美傘</t>
+  </si>
+  <si>
     <t>富新興市場</t>
   </si>
   <si>
@@ -552,39 +495,18 @@
     <t>原物料投資美</t>
   </si>
   <si>
-    <t>元大商業銀行</t>
-  </si>
-  <si>
-    <t>美傘</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>黃金</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>定期终生壽險</t>
+  </si>
+  <si>
+    <t>保險期間:79.12.21至終身繳費期間20年年繳152371元</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -594,9 +516,6 @@
     <t>新光人壽</t>
   </si>
   <si>
-    <t>定期终生壽險</t>
-  </si>
-  <si>
     <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
@@ -633,9 +552,6 @@
     <t>安聯人壽精選普爾</t>
   </si>
   <si>
-    <t>保險期間:79.12.21至終身繳費期間20年年繳152371元</t>
-  </si>
-  <si>
     <t>保險期間:99.4.6至105.4.6六年年繳165700元</t>
   </si>
   <si>
@@ -685,21 +601,6 @@
   </si>
   <si>
     <t>97.6.19至164.6.19躉繳1788703元</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -1070,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,19 +1020,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1555.5</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
@@ -1140,19 +1047,19 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -1161,21 +1068,27 @@
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -1184,22 +1097,22 @@
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -1208,45 +1121,51 @@
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>38</v>
@@ -1255,18 +1174,24 @@
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>89</v>
@@ -1281,19 +1206,19 @@
         <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>38</v>
@@ -1302,21 +1227,27 @@
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
@@ -1328,19 +1259,19 @@
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>38</v>
@@ -1349,21 +1280,27 @@
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -1375,19 +1312,19 @@
         <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>38</v>
@@ -1396,21 +1333,27 @@
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
@@ -1422,19 +1365,19 @@
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>38</v>
@@ -1443,21 +1386,27 @@
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -1469,19 +1418,19 @@
         <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>38</v>
@@ -1490,18 +1439,24 @@
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>67</v>
@@ -1516,19 +1471,19 @@
         <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>38</v>
@@ -1537,21 +1492,27 @@
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>67</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -1563,19 +1524,19 @@
         <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>38</v>
@@ -1584,21 +1545,27 @@
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1269</v>
+        <v>375.92</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -1607,22 +1574,22 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>38</v>
@@ -1631,21 +1598,27 @@
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>375.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>375.92</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -1657,19 +1630,19 @@
         <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>38</v>
@@ -1678,21 +1651,27 @@
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>642</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
@@ -1704,19 +1683,19 @@
         <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>38</v>
@@ -1725,21 +1704,27 @@
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>642</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
@@ -1751,19 +1736,19 @@
         <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>38</v>
@@ -1772,18 +1757,24 @@
         <v>1338</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>62</v>
@@ -1792,25 +1783,25 @@
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>38</v>
@@ -1819,45 +1810,51 @@
         <v>1338</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>62</v>
+        <v>1800</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>38</v>
@@ -1866,21 +1863,27 @@
         <v>1338</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>1800</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>36</v>
@@ -1892,19 +1895,19 @@
         <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15136450</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>38</v>
@@ -1913,18 +1916,24 @@
         <v>1338</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>175</v>
@@ -1942,16 +1951,16 @@
         <v>61</v>
       </c>
       <c r="H19" s="2">
-        <v>15136450</v>
+        <v>12770975</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>38</v>
@@ -1960,21 +1969,27 @@
         <v>1338</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
@@ -1983,22 +1998,22 @@
         <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2">
-        <v>12770975</v>
+        <v>12187554</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>38</v>
@@ -2007,45 +2022,51 @@
         <v>1338</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>166</v>
+        <v>7389.18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="2">
-        <v>12187554</v>
+        <v>1003458</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>38</v>
@@ -2054,57 +2075,16 @@
         <v>1338</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7389.18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1003458</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1338</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O22" s="2">
-        <v>36</v>
+      <c r="P21" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>22.16754</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2122,114 +2102,114 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1">
+        <v>330.91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2">
-        <v>330.91</v>
+        <v>131.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
-        <v>131.1</v>
+        <v>87.4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2">
-        <v>87.4</v>
+        <v>1167.7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2">
-        <v>1167.7</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
@@ -2238,24 +2218,24 @@
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
-        <v>165</v>
+        <v>111.2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
@@ -2264,24 +2244,24 @@
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
-        <v>111.2</v>
+        <v>291.3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -2290,24 +2270,24 @@
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2">
-        <v>291.3</v>
+        <v>383.1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
@@ -2316,24 +2296,24 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2">
-        <v>383.1</v>
+        <v>228.6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -2342,21 +2322,21 @@
         <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2">
         <v>228.6</v>
@@ -2368,24 +2348,24 @@
         <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2">
-        <v>228.6</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -2394,24 +2374,24 @@
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2">
-        <v>164</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -2420,24 +2400,24 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2">
-        <v>728</v>
+        <v>224.1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -2446,24 +2426,24 @@
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2">
-        <v>224.1</v>
+        <v>132.8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
@@ -2472,65 +2452,39 @@
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2">
-        <v>132.8</v>
+        <v>28275.55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2">
-        <v>28275.55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2494,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2548,136 +2502,113 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="G1" s="1">
+        <v>809000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
-        <v>1997</v>
+        <v>2164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
-        <v>809000</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2">
-        <v>2164</v>
+        <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1776000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
-        <v>3456</v>
+        <v>1794</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
-        <v>1776000</v>
+        <v>572000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
-        <v>1794</v>
+        <v>3498</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2">
-        <v>572000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="2">
         <v>3212000</v>
       </c>
     </row>
@@ -2688,7 +2619,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2696,361 +2627,338 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>301810</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>301810</v>
+        <v>144953</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>144953</v>
+        <v>510376</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>510376</v>
+        <v>391680</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>391680</v>
+        <v>122422</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>122422</v>
+        <v>257555</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>257555</v>
+        <v>22283</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>22283</v>
+        <v>203468</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>203468</v>
+        <v>13760</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>13760</v>
+        <v>914995</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>914995</v>
+        <v>690123</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>690123</v>
+        <v>53206</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>53206</v>
+        <v>567014</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>41943.84</v>
+      </c>
       <c r="G14" s="2">
-        <v>567014</v>
+        <v>1282852.34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2">
-        <v>41943.84</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1282852.34</v>
+        <v>100190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1347.21</v>
+      </c>
       <c r="G16" s="2">
-        <v>100190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>99</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1347.21</v>
-      </c>
-      <c r="G17" s="2">
         <v>40564.49</v>
       </c>
     </row>
@@ -3061,7 +2969,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3075,16 +2983,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3110,34 +3018,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2">
-        <v>70000</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -3146,42 +3054,42 @@
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>30000</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2">
-        <v>2000</v>
+        <v>300000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>38</v>
@@ -3190,42 +3098,42 @@
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N3" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>38</v>
@@ -3234,42 +3142,42 @@
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N4" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>38</v>
@@ -3278,53 +3186,9 @@
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>110</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1338</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="2">
         <v>110</v>
       </c>
     </row>
@@ -3335,7 +3199,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3343,518 +3207,492 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
+      </c>
+      <c r="E1" s="1">
+        <v>24.166</v>
+      </c>
+      <c r="F1" s="1">
+        <v>90.63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="H1" s="1">
+        <v>66274.38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2">
-        <v>24.166</v>
+        <v>181.75</v>
       </c>
       <c r="F2" s="2">
-        <v>90.63</v>
+        <v>17.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2">
-        <v>66274.38</v>
+        <v>97950.63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2">
-        <v>181.75</v>
+        <v>160.87</v>
       </c>
       <c r="F3" s="2">
-        <v>17.81</v>
+        <v>22.93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H3" s="2">
-        <v>97950.63</v>
+        <v>111621.54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2">
-        <v>160.87</v>
+        <v>217.15</v>
       </c>
       <c r="F4" s="2">
         <v>22.93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2">
-        <v>111621.54</v>
+        <v>150672.08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2">
-        <v>217.15</v>
+        <v>189.791</v>
       </c>
       <c r="F5" s="2">
-        <v>22.93</v>
+        <v>6.53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2">
-        <v>150672.08</v>
+        <v>37502.28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2">
-        <v>189.791</v>
+        <v>108.861</v>
       </c>
       <c r="F6" s="2">
-        <v>6.53</v>
+        <v>24.44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2">
-        <v>37502.28</v>
+        <v>80508.63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2">
+        <v>78.308</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43.84</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="2">
-        <v>108.861</v>
-      </c>
-      <c r="F7" s="2">
-        <v>24.44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H7" s="2">
-        <v>80508.63</v>
+        <v>103883.26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2">
-        <v>78.308</v>
+        <v>683.244</v>
       </c>
       <c r="F8" s="2">
-        <v>43.84</v>
+        <v>2.7457</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2">
-        <v>103883.26</v>
+        <v>56767.24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2">
-        <v>683.244</v>
+        <v>110.023</v>
       </c>
       <c r="F9" s="2">
-        <v>2.7457</v>
+        <v>38.48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H9" s="2">
-        <v>56767.24</v>
+        <v>128111.3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2">
-        <v>110.023</v>
+        <v>93.64</v>
       </c>
       <c r="F10" s="2">
-        <v>38.48</v>
+        <v>40.66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2">
-        <v>128111.3</v>
+        <v>115211.99</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2">
-        <v>93.64</v>
+        <v>57.004</v>
       </c>
       <c r="F11" s="2">
-        <v>40.66</v>
+        <v>69.37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H11" s="2">
-        <v>115211.99</v>
+        <v>119659.15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2">
-        <v>57.004</v>
+        <v>124.253</v>
       </c>
       <c r="F12" s="2">
-        <v>69.37</v>
+        <v>25.09</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H12" s="2">
-        <v>119659.15</v>
+        <v>94335.78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2">
-        <v>124.253</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="2">
-        <v>25.09</v>
+        <v>9.95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2">
-        <v>94335.78</v>
+        <v>497500</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2">
-        <v>50000</v>
+        <v>75.517</v>
       </c>
       <c r="F14" s="2">
-        <v>9.95</v>
+        <v>28.04</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H14" s="2">
-        <v>497500</v>
+        <v>64075.44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2">
-        <v>75.517</v>
+        <v>130.38</v>
       </c>
       <c r="F15" s="2">
-        <v>28.04</v>
+        <v>17.854</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H15" s="2">
-        <v>64075.44</v>
+        <v>70439.36</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2">
-        <v>130.38</v>
+        <v>96.703</v>
       </c>
       <c r="F16" s="2">
-        <v>17.854</v>
+        <v>21.18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H16" s="2">
-        <v>70439.36</v>
+        <v>61977.61</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2">
-        <v>96.703</v>
+        <v>124.183</v>
       </c>
       <c r="F17" s="2">
-        <v>21.18</v>
+        <v>16.12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H17" s="2">
-        <v>61977.61</v>
+        <v>60575.37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2">
-        <v>124.183</v>
+        <v>2.266</v>
       </c>
       <c r="F18" s="2">
-        <v>16.12</v>
+        <v>893.87</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H18" s="2">
-        <v>60575.37</v>
+        <v>61291.91</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2">
-        <v>2.266</v>
+        <v>47.032</v>
       </c>
       <c r="F19" s="2">
-        <v>893.87</v>
+        <v>90.63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H19" s="2">
-        <v>61291.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>139</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="2">
-        <v>47.032</v>
-      </c>
-      <c r="F20" s="2">
-        <v>90.63</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="2">
         <v>128983.55</v>
       </c>
     </row>
@@ -3865,7 +3703,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3873,366 +3738,305 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>153</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>171</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +4046,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4250,68 +4054,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>194</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2">
-        <v>6500000</v>
+        <v>42861840</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>182</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42861840</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣彰化市萬興段07870000地號</t>
+  </si>
+  <si>
     <t>彰化縣彰化市延和段01280000地號</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t>臺中市南屯區惠信段01180000地號</t>
   </si>
   <si>
+    <t>4分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>林施金5</t>
   </si>
   <si>
+    <t>81年03月20日</t>
+  </si>
+  <si>
     <t>81年05月19日</t>
   </si>
   <si>
@@ -198,6 +207,9 @@
     <t>95年11月08日</t>
   </si>
   <si>
+    <t>繼承</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -240,15 +252,6 @@
     <t>彰化縣彰化市田中央段00041000建號</t>
   </si>
   <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>81年03月20日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
     <t>彰化縣彰化市延平段00931000建號</t>
   </si>
   <si>
@@ -421,6 +424,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社</t>
   </si>
   <si>
     <t>彰條一信用合作社</t>
@@ -971,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,166 +1035,166 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>1555.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2">
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>100</v>
+        <v>388.875</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2">
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2">
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -1197,40 +1203,40 @@
         <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2">
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
@@ -1241,219 +1247,219 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M6" s="2">
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2">
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" s="2">
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2">
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1462,40 +1468,40 @@
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M10" s="2">
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -1506,272 +1512,272 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1269</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2">
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1269</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>375.92</v>
+        <v>1269</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2">
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>375.92</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>375.92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M13" s="2">
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>8</v>
+        <v>375.92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>642</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M14" s="2">
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>642</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
+        <v>642</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M15" s="2">
         <v>1338</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>62</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1780,40 +1786,40 @@
         <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M16" s="2">
         <v>1338</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -1824,113 +1830,113 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>1800</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M17" s="2">
         <v>1338</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>1800</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>175</v>
+        <v>1800</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2">
-        <v>15136450</v>
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M18" s="2">
         <v>1338</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>175</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -1939,40 +1945,40 @@
         <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2">
-        <v>12770975</v>
+        <v>15136450</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M19" s="2">
         <v>1338</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
@@ -1983,107 +1989,160 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2">
-        <v>12187554</v>
+        <v>12770975</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20" s="2">
         <v>1338</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>7389.18</v>
+        <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2">
-        <v>1003458</v>
+        <v>12187554</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M21" s="2">
         <v>1338</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>36</v>
       </c>
-      <c r="P21" s="2">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7389.18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1003458</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
         <v>0.003</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q22" s="2">
         <v>22.16754</v>
       </c>
     </row>
@@ -2094,246 +2153,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1">
-        <v>330.91</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="2">
-        <v>131.1</v>
+        <v>330.91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="2">
+        <v>41</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>82.7275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="2">
-        <v>87.4</v>
+        <v>131.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="2">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="2">
-        <v>1167.7</v>
+        <v>87.4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="2">
-        <v>165</v>
+        <v>1167.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="2">
         <v>44</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1167.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="2">
-        <v>111.2</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>46</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="2">
-        <v>291.3</v>
+        <v>111.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="2">
+        <v>46</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="2">
-        <v>383.1</v>
+        <v>291.3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="2">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="2">
-        <v>228.6</v>
+        <v>383.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="2">
+        <v>48</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>383.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
@@ -2342,149 +2644,364 @@
         <v>228.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="2">
+        <v>49</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>228.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2">
-        <v>164</v>
+        <v>228.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="2">
+        <v>50</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>228.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="2">
-        <v>728</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="2">
         <v>51</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="2">
-        <v>224.1</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="2">
+        <v>52</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="2">
-        <v>132.8</v>
+        <v>224.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="2">
         <v>53</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>224.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="2">
+        <v>132.8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="2">
+        <v>55</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>132.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2">
         <v>28275.55</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="2">
+        <v>56</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.00338</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>95.571359</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +3011,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2502,19 +3019,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1">
         <v>809000</v>
@@ -2522,93 +3039,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="2">
-        <v>2164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="G2" s="2">
+        <v>809000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="2">
-        <v>3456</v>
+        <v>2164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1776000</v>
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="2">
-        <v>1794</v>
+        <v>3456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
-        <v>572000</v>
+        <v>1776000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="2">
-        <v>3498</v>
+        <v>1794</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2">
         <v>3212000</v>
       </c>
     </row>
@@ -2619,7 +3159,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2627,16 +3167,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2645,112 +3185,112 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>144953</v>
+        <v>301810</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>510376</v>
+        <v>144953</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>391680</v>
+        <v>510376</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>122422</v>
+        <v>391680</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>257555</v>
+        <v>122422</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>117</v>
@@ -2759,124 +3299,124 @@
         <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>22283</v>
+        <v>257555</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>203468</v>
+        <v>22283</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>13760</v>
+        <v>203468</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>914995</v>
+        <v>13760</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>690123</v>
+        <v>914995</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>53206</v>
+        <v>690123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>122</v>
@@ -2885,80 +3425,101 @@
         <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>567014</v>
+        <v>53206</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2">
-        <v>41943.84</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1282852.34</v>
+        <v>567014</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>41943.84</v>
+      </c>
       <c r="G15" s="2">
-        <v>100190</v>
+        <v>1282852.34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>100190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>99</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2">
         <v>1347.21</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>40564.49</v>
       </c>
     </row>
@@ -2969,7 +3530,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2983,13 +3544,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3018,177 +3579,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
-        <v>2000</v>
+        <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2">
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2">
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2">
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2">
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="2">
         <v>110</v>
       </c>
     </row>
@@ -3199,7 +3804,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3207,13 +3812,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1">
         <v>24.166</v>
@@ -3222,7 +3827,7 @@
         <v>90.63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1">
         <v>66274.38</v>
@@ -3230,469 +3835,495 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E2" s="2">
-        <v>181.75</v>
+        <v>24.166</v>
       </c>
       <c r="F2" s="2">
-        <v>17.81</v>
+        <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H2" s="2">
-        <v>97950.63</v>
+        <v>66274.38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
-        <v>160.87</v>
+        <v>181.75</v>
       </c>
       <c r="F3" s="2">
-        <v>22.93</v>
+        <v>17.81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H3" s="2">
-        <v>111621.54</v>
+        <v>97950.63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2">
-        <v>217.15</v>
+        <v>160.87</v>
       </c>
       <c r="F4" s="2">
         <v>22.93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2">
-        <v>150672.08</v>
+        <v>111621.54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2">
-        <v>189.791</v>
+        <v>217.15</v>
       </c>
       <c r="F5" s="2">
-        <v>6.53</v>
+        <v>22.93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2">
-        <v>37502.28</v>
+        <v>150672.08</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2">
-        <v>108.861</v>
+        <v>189.791</v>
       </c>
       <c r="F6" s="2">
-        <v>24.44</v>
+        <v>6.53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2">
-        <v>80508.63</v>
+        <v>37502.28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="2">
+        <v>108.861</v>
+      </c>
+      <c r="F7" s="2">
+        <v>24.44</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="2">
-        <v>78.308</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43.84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="H7" s="2">
-        <v>103883.26</v>
+        <v>80508.63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2">
-        <v>683.244</v>
+        <v>78.308</v>
       </c>
       <c r="F8" s="2">
-        <v>2.7457</v>
+        <v>43.84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2">
-        <v>56767.24</v>
+        <v>103883.26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2">
-        <v>110.023</v>
+        <v>683.244</v>
       </c>
       <c r="F9" s="2">
-        <v>38.48</v>
+        <v>2.7457</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2">
-        <v>128111.3</v>
+        <v>56767.24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2">
-        <v>93.64</v>
+        <v>110.023</v>
       </c>
       <c r="F10" s="2">
-        <v>40.66</v>
+        <v>38.48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="2">
-        <v>115211.99</v>
+        <v>128111.3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2">
-        <v>57.004</v>
+        <v>93.64</v>
       </c>
       <c r="F11" s="2">
-        <v>69.37</v>
+        <v>40.66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2">
-        <v>119659.15</v>
+        <v>115211.99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2">
-        <v>124.253</v>
+        <v>57.004</v>
       </c>
       <c r="F12" s="2">
-        <v>25.09</v>
+        <v>69.37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2">
-        <v>94335.78</v>
+        <v>119659.15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2">
-        <v>50000</v>
+        <v>124.253</v>
       </c>
       <c r="F13" s="2">
-        <v>9.95</v>
+        <v>25.09</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H13" s="2">
-        <v>497500</v>
+        <v>94335.78</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2">
-        <v>75.517</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="2">
-        <v>28.04</v>
+        <v>9.95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H14" s="2">
-        <v>64075.44</v>
+        <v>497500</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2">
-        <v>130.38</v>
+        <v>75.517</v>
       </c>
       <c r="F15" s="2">
-        <v>17.854</v>
+        <v>28.04</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" s="2">
-        <v>70439.36</v>
+        <v>64075.44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2">
-        <v>96.703</v>
+        <v>130.38</v>
       </c>
       <c r="F16" s="2">
-        <v>21.18</v>
+        <v>17.854</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H16" s="2">
-        <v>61977.61</v>
+        <v>70439.36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2">
-        <v>124.183</v>
+        <v>96.703</v>
       </c>
       <c r="F17" s="2">
-        <v>16.12</v>
+        <v>21.18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" s="2">
-        <v>60575.37</v>
+        <v>61977.61</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2">
-        <v>2.266</v>
+        <v>124.183</v>
       </c>
       <c r="F18" s="2">
-        <v>893.87</v>
+        <v>16.12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="2">
-        <v>61291.91</v>
+        <v>60575.37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.266</v>
+      </c>
+      <c r="F19" s="2">
+        <v>893.87</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="2">
+        <v>61291.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>139</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="B20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="2">
         <v>47.032</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>90.63</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="2">
         <v>128983.55</v>
       </c>
     </row>
@@ -3703,23 +4334,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -3730,7 +4378,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3738,305 +4386,322 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
+        <v>170</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>171</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>192</v>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +4711,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4054,45 +4719,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>182</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="2">
         <v>42861840</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>58</v>
+      <c r="F3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="200">
   <si>
     <t>name</t>
   </si>
@@ -330,22 +330,25 @@
     <t>213234(公共設施）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>中華</t>
   </si>
   <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>豐田</t>
+  </si>
+  <si>
+    <t>國瑞</t>
+  </si>
+  <si>
+    <t>賓士</t>
+  </si>
+  <si>
     <t>93年08月10日</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>豐田</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>賓士</t>
   </si>
   <si>
     <t>90年09月19日</t>
@@ -3011,38 +3014,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1">
-        <v>809000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -3051,7 +3075,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3059,8 +3083,29 @@
       <c r="G2" s="2">
         <v>809000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>66</v>
       </c>
@@ -3074,7 +3119,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>62</v>
@@ -3082,8 +3127,29 @@
       <c r="G3" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>67</v>
       </c>
@@ -3097,7 +3163,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
@@ -3105,8 +3171,29 @@
       <c r="G4" s="2">
         <v>1776000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>68</v>
       </c>
@@ -3120,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>62</v>
@@ -3128,8 +3215,29 @@
       <c r="G5" s="2">
         <v>572000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>69</v>
       </c>
@@ -3143,13 +3251,34 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>3212000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3167,13 +3296,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -3188,13 +3317,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
@@ -3209,16 +3338,16 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -3230,13 +3359,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
@@ -3251,13 +3380,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
@@ -3272,13 +3401,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
@@ -3293,13 +3422,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
@@ -3314,16 +3443,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -3335,13 +3464,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -3356,13 +3485,13 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -3377,13 +3506,13 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
@@ -3398,13 +3527,13 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -3419,13 +3548,13 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
@@ -3440,13 +3569,13 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -3461,13 +3590,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
@@ -3484,13 +3613,13 @@
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -3505,13 +3634,13 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
@@ -3544,13 +3673,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3582,7 +3711,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -3594,13 +3723,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>72</v>
@@ -3626,7 +3755,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3638,13 +3767,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>72</v>
@@ -3670,7 +3799,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3682,13 +3811,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>72</v>
@@ -3714,7 +3843,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -3726,13 +3855,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
@@ -3758,25 +3887,25 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>72</v>
@@ -3812,13 +3941,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1">
         <v>24.166</v>
@@ -3827,7 +3956,7 @@
         <v>90.63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1">
         <v>66274.38</v>
@@ -3838,13 +3967,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -3853,7 +3982,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -3864,13 +3993,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -3879,7 +4008,7 @@
         <v>17.81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2">
         <v>97950.63</v>
@@ -3890,13 +4019,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -3905,7 +4034,7 @@
         <v>22.93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="2">
         <v>111621.54</v>
@@ -3916,13 +4045,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -3931,7 +4060,7 @@
         <v>22.93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2">
         <v>150672.08</v>
@@ -3942,13 +4071,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -3957,7 +4086,7 @@
         <v>6.53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2">
         <v>37502.28</v>
@@ -3968,13 +4097,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -3983,7 +4112,7 @@
         <v>24.44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2">
         <v>80508.63</v>
@@ -3994,13 +4123,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4009,7 +4138,7 @@
         <v>43.84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2">
         <v>103883.26</v>
@@ -4020,13 +4149,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -4035,7 +4164,7 @@
         <v>2.7457</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9" s="2">
         <v>56767.24</v>
@@ -4046,13 +4175,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -4061,7 +4190,7 @@
         <v>38.48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2">
         <v>128111.3</v>
@@ -4072,13 +4201,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -4087,7 +4216,7 @@
         <v>40.66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2">
         <v>115211.99</v>
@@ -4098,13 +4227,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -4113,7 +4242,7 @@
         <v>69.37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2">
         <v>119659.15</v>
@@ -4124,13 +4253,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -4139,7 +4268,7 @@
         <v>25.09</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H13" s="2">
         <v>94335.78</v>
@@ -4150,13 +4279,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4165,7 +4294,7 @@
         <v>9.95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2">
         <v>497500</v>
@@ -4176,13 +4305,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -4191,7 +4320,7 @@
         <v>28.04</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H15" s="2">
         <v>64075.44</v>
@@ -4202,13 +4331,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -4217,7 +4346,7 @@
         <v>17.854</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H16" s="2">
         <v>70439.36</v>
@@ -4228,13 +4357,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -4243,7 +4372,7 @@
         <v>21.18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="2">
         <v>61977.61</v>
@@ -4254,13 +4383,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -4269,7 +4398,7 @@
         <v>16.12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2">
         <v>60575.37</v>
@@ -4280,13 +4409,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -4295,7 +4424,7 @@
         <v>893.87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2">
         <v>61291.91</v>
@@ -4306,13 +4435,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -4321,7 +4450,7 @@
         <v>90.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="2">
         <v>128983.55</v>
@@ -4342,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -4359,7 +4488,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4386,16 +4515,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4403,16 +4532,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4420,16 +4549,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4437,16 +4566,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4454,16 +4583,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4471,16 +4600,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4488,16 +4617,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4505,16 +4634,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4522,16 +4651,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4539,16 +4668,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4556,16 +4685,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4573,16 +4702,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4590,16 +4719,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4607,16 +4736,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4624,16 +4753,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4641,16 +4770,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4658,16 +4787,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4675,16 +4804,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4692,16 +4821,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4719,19 +4848,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>62</v>
@@ -4742,19 +4871,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
@@ -4765,19 +4894,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>62</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="202">
   <si>
     <t>name</t>
   </si>
@@ -330,6 +330,9 @@
     <t>213234(公共設施）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -361,6 +364,9 @@
   </si>
   <si>
     <t>96年05月25日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行彰化分行</t>
@@ -2238,7 +2244,7 @@
         <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -2291,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>72</v>
@@ -2344,7 +2350,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>72</v>
@@ -2397,7 +2403,7 @@
         <v>97</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>72</v>
@@ -2450,7 +2456,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>72</v>
@@ -2503,7 +2509,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>72</v>
@@ -2556,7 +2562,7 @@
         <v>98</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>72</v>
@@ -2609,7 +2615,7 @@
         <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>72</v>
@@ -2662,7 +2668,7 @@
         <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>72</v>
@@ -2715,7 +2721,7 @@
         <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>72</v>
@@ -2768,7 +2774,7 @@
         <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>72</v>
@@ -2821,7 +2827,7 @@
         <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>72</v>
@@ -2874,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>72</v>
@@ -2927,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>72</v>
@@ -2980,7 +2986,7 @@
         <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>72</v>
@@ -3025,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3066,7 +3072,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -3075,7 +3081,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3084,7 +3090,7 @@
         <v>809000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>72</v>
@@ -3110,7 +3116,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2">
         <v>2164</v>
@@ -3119,7 +3125,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>62</v>
@@ -3128,7 +3134,7 @@
         <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>72</v>
@@ -3154,7 +3160,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2">
         <v>3456</v>
@@ -3163,7 +3169,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
@@ -3172,7 +3178,7 @@
         <v>1776000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>72</v>
@@ -3198,7 +3204,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2">
         <v>1794</v>
@@ -3207,7 +3213,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>62</v>
@@ -3216,7 +3222,7 @@
         <v>572000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
@@ -3242,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2">
         <v>3498</v>
@@ -3251,7 +3257,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>63</v>
@@ -3260,7 +3266,7 @@
         <v>3212000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>72</v>
@@ -3296,13 +3302,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -3317,13 +3323,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
@@ -3338,16 +3344,16 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -3359,13 +3365,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
@@ -3380,13 +3386,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
@@ -3401,13 +3407,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
@@ -3422,13 +3428,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
@@ -3443,16 +3449,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -3464,13 +3470,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -3485,13 +3491,13 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -3506,13 +3512,13 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
@@ -3527,13 +3533,13 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -3548,13 +3554,13 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
@@ -3569,13 +3575,13 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -3590,13 +3596,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
@@ -3613,13 +3619,13 @@
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -3634,13 +3640,13 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
@@ -3673,13 +3679,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3711,7 +3717,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -3723,13 +3729,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>72</v>
@@ -3755,7 +3761,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3767,13 +3773,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>72</v>
@@ -3799,7 +3805,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3811,13 +3817,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>72</v>
@@ -3843,7 +3849,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -3855,13 +3861,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
@@ -3887,25 +3893,25 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>72</v>
@@ -3941,13 +3947,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1">
         <v>24.166</v>
@@ -3956,7 +3962,7 @@
         <v>90.63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1">
         <v>66274.38</v>
@@ -3967,13 +3973,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -3982,7 +3988,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -3993,13 +3999,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4008,7 +4014,7 @@
         <v>17.81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2">
         <v>97950.63</v>
@@ -4019,13 +4025,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4034,7 +4040,7 @@
         <v>22.93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2">
         <v>111621.54</v>
@@ -4045,13 +4051,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4060,7 +4066,7 @@
         <v>22.93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H5" s="2">
         <v>150672.08</v>
@@ -4071,13 +4077,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4086,7 +4092,7 @@
         <v>6.53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H6" s="2">
         <v>37502.28</v>
@@ -4097,13 +4103,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4112,7 +4118,7 @@
         <v>24.44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" s="2">
         <v>80508.63</v>
@@ -4123,13 +4129,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4138,7 +4144,7 @@
         <v>43.84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2">
         <v>103883.26</v>
@@ -4149,13 +4155,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -4164,7 +4170,7 @@
         <v>2.7457</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H9" s="2">
         <v>56767.24</v>
@@ -4175,13 +4181,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -4190,7 +4196,7 @@
         <v>38.48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="2">
         <v>128111.3</v>
@@ -4201,13 +4207,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -4216,7 +4222,7 @@
         <v>40.66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2">
         <v>115211.99</v>
@@ -4227,13 +4233,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -4242,7 +4248,7 @@
         <v>69.37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H12" s="2">
         <v>119659.15</v>
@@ -4253,13 +4259,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -4268,7 +4274,7 @@
         <v>25.09</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" s="2">
         <v>94335.78</v>
@@ -4279,13 +4285,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4294,7 +4300,7 @@
         <v>9.95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H14" s="2">
         <v>497500</v>
@@ -4305,13 +4311,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -4320,7 +4326,7 @@
         <v>28.04</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H15" s="2">
         <v>64075.44</v>
@@ -4331,13 +4337,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -4346,7 +4352,7 @@
         <v>17.854</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2">
         <v>70439.36</v>
@@ -4357,13 +4363,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -4372,7 +4378,7 @@
         <v>21.18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2">
         <v>61977.61</v>
@@ -4383,13 +4389,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -4398,7 +4404,7 @@
         <v>16.12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H18" s="2">
         <v>60575.37</v>
@@ -4409,13 +4415,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -4424,7 +4430,7 @@
         <v>893.87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="2">
         <v>61291.91</v>
@@ -4435,13 +4441,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -4450,7 +4456,7 @@
         <v>90.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H20" s="2">
         <v>128983.55</v>
@@ -4471,7 +4477,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -4488,7 +4494,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4515,16 +4521,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4532,16 +4538,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4549,16 +4555,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4566,16 +4572,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4583,16 +4589,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4600,16 +4606,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4617,16 +4623,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4634,16 +4640,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4651,16 +4657,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4668,16 +4674,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4685,16 +4691,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4702,16 +4708,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4719,16 +4725,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4736,16 +4742,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4753,16 +4759,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4770,16 +4776,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4787,16 +4793,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4804,16 +4810,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4821,16 +4827,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4848,19 +4854,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>62</v>
@@ -4871,19 +4877,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
@@ -4894,19 +4900,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>62</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="205">
   <si>
     <t>name</t>
   </si>
@@ -369,51 +369,60 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行彰化分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行彰化分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中彰分行</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社營業部</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社旭光分社</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行彰化分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司彰化光復路郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南彰化分行</t>
+  </si>
+  <si>
+    <t>彰化市農會大竹里彰南分社</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行彰營分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行彰化分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中彰分行</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社營業部</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社旭光分社</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行彰化分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司彰化光復路郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南彰化分行</t>
-  </si>
-  <si>
-    <t>彰化市農會大竹里彰南分社</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -426,13 +435,13 @@
     <t>林纖</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>彰化第五信用合作社</t>
@@ -3294,13 +3303,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
@@ -3311,351 +3320,687 @@
         <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>301810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>301810</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>135</v>
+      </c>
+      <c r="F3" s="2">
         <v>144953</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>510376</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>391680</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>122422</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>257555</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+        <v>136</v>
+      </c>
+      <c r="F8" s="2">
         <v>22283</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>203468</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>13760</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>914995</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>690123</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>53206</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>567014</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="2">
-        <v>41943.84</v>
-      </c>
-      <c r="G15" s="2">
         <v>1282852.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>100190</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="2">
-        <v>1347.21</v>
-      </c>
-      <c r="G17" s="2">
         <v>40564.49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3679,13 +4024,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3717,7 +4062,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -3729,13 +4074,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>72</v>
@@ -3761,7 +4106,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3773,13 +4118,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>72</v>
@@ -3805,7 +4150,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3817,13 +4162,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>72</v>
@@ -3849,7 +4194,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -3861,13 +4206,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
@@ -3893,25 +4238,25 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>72</v>
@@ -3947,13 +4292,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1">
         <v>24.166</v>
@@ -3962,7 +4307,7 @@
         <v>90.63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1">
         <v>66274.38</v>
@@ -3973,13 +4318,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -3988,7 +4333,7 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
@@ -3999,13 +4344,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4014,7 +4359,7 @@
         <v>17.81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2">
         <v>97950.63</v>
@@ -4025,13 +4370,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4040,7 +4385,7 @@
         <v>22.93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H4" s="2">
         <v>111621.54</v>
@@ -4051,13 +4396,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4066,7 +4411,7 @@
         <v>22.93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2">
         <v>150672.08</v>
@@ -4077,13 +4422,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4092,7 +4437,7 @@
         <v>6.53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2">
         <v>37502.28</v>
@@ -4103,13 +4448,13 @@
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4118,7 +4463,7 @@
         <v>24.44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H7" s="2">
         <v>80508.63</v>
@@ -4129,13 +4474,13 @@
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4144,7 +4489,7 @@
         <v>43.84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2">
         <v>103883.26</v>
@@ -4155,13 +4500,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -4170,7 +4515,7 @@
         <v>2.7457</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2">
         <v>56767.24</v>
@@ -4181,13 +4526,13 @@
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -4196,7 +4541,7 @@
         <v>38.48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H10" s="2">
         <v>128111.3</v>
@@ -4207,13 +4552,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -4222,7 +4567,7 @@
         <v>40.66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="2">
         <v>115211.99</v>
@@ -4233,13 +4578,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -4248,7 +4593,7 @@
         <v>69.37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H12" s="2">
         <v>119659.15</v>
@@ -4259,13 +4604,13 @@
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -4274,7 +4619,7 @@
         <v>25.09</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" s="2">
         <v>94335.78</v>
@@ -4285,13 +4630,13 @@
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4300,7 +4645,7 @@
         <v>9.95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H14" s="2">
         <v>497500</v>
@@ -4311,13 +4656,13 @@
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -4326,7 +4671,7 @@
         <v>28.04</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H15" s="2">
         <v>64075.44</v>
@@ -4337,13 +4682,13 @@
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -4352,7 +4697,7 @@
         <v>17.854</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2">
         <v>70439.36</v>
@@ -4363,13 +4708,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -4378,7 +4723,7 @@
         <v>21.18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H17" s="2">
         <v>61977.61</v>
@@ -4389,13 +4734,13 @@
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -4404,7 +4749,7 @@
         <v>16.12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H18" s="2">
         <v>60575.37</v>
@@ -4415,13 +4760,13 @@
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -4430,7 +4775,7 @@
         <v>893.87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H19" s="2">
         <v>61291.91</v>
@@ -4441,13 +4786,13 @@
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -4456,7 +4801,7 @@
         <v>90.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="2">
         <v>128983.55</v>
@@ -4477,7 +4822,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -4494,7 +4839,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4521,16 +4866,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4538,16 +4883,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4555,16 +4900,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4572,16 +4917,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4589,16 +4934,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4606,16 +4951,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4623,16 +4968,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4640,16 +4985,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4657,16 +5002,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4674,16 +5019,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4691,16 +5036,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4708,16 +5053,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4725,16 +5070,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4742,16 +5087,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4759,16 +5104,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4776,16 +5121,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4793,16 +5138,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4810,16 +5155,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4827,16 +5172,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4854,19 +5199,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>62</v>
@@ -4877,19 +5222,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
@@ -4900,19 +5245,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>62</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="208">
   <si>
     <t>name</t>
   </si>
@@ -462,64 +462,73 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>JF東協基金</t>
   </si>
   <si>
+    <t>富新興市場</t>
+  </si>
+  <si>
+    <t>景順韓國</t>
+  </si>
+  <si>
+    <t>蘭坦#司債</t>
+  </si>
+  <si>
+    <t>霸菱全球資源美元</t>
+  </si>
+  <si>
+    <t>霸菱拉丁美洲</t>
+  </si>
+  <si>
+    <t>先機亞太股票基金美元</t>
+  </si>
+  <si>
+    <t>首域印度基金</t>
+  </si>
+  <si>
+    <t>景順中國基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓拉丁美</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓東歐美</t>
+  </si>
+  <si>
+    <t>保德信亞洲新興債累積</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成</t>
+  </si>
+  <si>
+    <t>保誠印尼基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓大中華基金</t>
+  </si>
+  <si>
+    <t>摩根富林天然資源美元</t>
+  </si>
+  <si>
+    <t>原物料投資美</t>
+  </si>
+  <si>
     <t>元大商業銀行</t>
   </si>
   <si>
     <t>美傘</t>
   </si>
   <si>
-    <t>富新興市場</t>
-  </si>
-  <si>
-    <t>景順韓國</t>
-  </si>
-  <si>
-    <t>蘭坦#司債</t>
-  </si>
-  <si>
-    <t>霸菱全球資源美元</t>
-  </si>
-  <si>
-    <t>霸菱拉丁美洲</t>
-  </si>
-  <si>
-    <t>先機亞太股票基金美元</t>
-  </si>
-  <si>
-    <t>首域印度基金</t>
-  </si>
-  <si>
-    <t>景順中國基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓拉丁美</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓東歐美</t>
-  </si>
-  <si>
-    <t>保德信亞洲新興債累積</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓亞洲成</t>
-  </si>
-  <si>
-    <t>保誠印尼基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓大中華基金</t>
-  </si>
-  <si>
-    <t>摩根富林天然資源美元</t>
-  </si>
-  <si>
-    <t>原物料投資美</t>
+    <t>fund</t>
   </si>
   <si>
     <t>黃金</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國華人壽</t>
@@ -4284,47 +4293,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1">
-        <v>24.166</v>
-      </c>
-      <c r="F1" s="1">
-        <v>90.63</v>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1">
-        <v>66274.38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2">
         <v>24.166</v>
@@ -4333,24 +4363,45 @@
         <v>90.63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H2" s="2">
         <v>66274.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4364,19 +4415,40 @@
       <c r="H3" s="2">
         <v>97950.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4390,19 +4462,40 @@
       <c r="H4" s="2">
         <v>111621.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4416,19 +4509,40 @@
       <c r="H5" s="2">
         <v>150672.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4442,19 +4556,40 @@
       <c r="H6" s="2">
         <v>37502.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4468,19 +4603,40 @@
       <c r="H7" s="2">
         <v>80508.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4494,19 +4650,40 @@
       <c r="H8" s="2">
         <v>103883.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2">
         <v>683.244</v>
@@ -4520,19 +4697,40 @@
       <c r="H9" s="2">
         <v>56767.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2">
         <v>110.023</v>
@@ -4546,19 +4744,40 @@
       <c r="H10" s="2">
         <v>128111.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2">
         <v>93.64</v>
@@ -4572,19 +4791,40 @@
       <c r="H11" s="2">
         <v>115211.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2">
         <v>57.004</v>
@@ -4598,19 +4838,40 @@
       <c r="H12" s="2">
         <v>119659.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>132</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E13" s="2">
         <v>124.253</v>
@@ -4624,19 +4885,40 @@
       <c r="H13" s="2">
         <v>94335.78</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4650,19 +4932,40 @@
       <c r="H14" s="2">
         <v>497500</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2">
         <v>75.517</v>
@@ -4676,19 +4979,40 @@
       <c r="H15" s="2">
         <v>64075.44</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2">
         <v>130.38</v>
@@ -4702,19 +5026,40 @@
       <c r="H16" s="2">
         <v>70439.36</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2">
         <v>96.703</v>
@@ -4728,19 +5073,40 @@
       <c r="H17" s="2">
         <v>61977.61</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2">
         <v>124.183</v>
@@ -4754,19 +5120,40 @@
       <c r="H18" s="2">
         <v>60575.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E19" s="2">
         <v>2.266</v>
@@ -4780,19 +5167,40 @@
       <c r="H19" s="2">
         <v>61291.91</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2">
         <v>47.032</v>
@@ -4805,6 +5213,27 @@
       </c>
       <c r="H20" s="2">
         <v>128983.55</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="2">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4814,32 +5243,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4849,6 +5299,27 @@
       </c>
       <c r="E2" s="2">
         <v>400000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4866,16 +5337,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4883,16 +5354,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4900,16 +5371,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4917,16 +5388,16 @@
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4934,16 +5405,16 @@
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4951,16 +5422,16 @@
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4968,16 +5439,16 @@
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4985,16 +5456,16 @@
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5002,16 +5473,16 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5019,16 +5490,16 @@
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5036,16 +5507,16 @@
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5053,16 +5524,16 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5070,16 +5541,16 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5087,16 +5558,16 @@
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5104,16 +5575,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5121,16 +5592,16 @@
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5138,16 +5609,16 @@
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5155,16 +5626,16 @@
         <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5172,16 +5643,16 @@
         <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5199,19 +5670,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>62</v>
@@ -5222,19 +5693,19 @@
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
@@ -5245,19 +5716,19 @@
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>62</v>

--- a/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
+++ b/legislator/property/output/normal/林滄敏_2011-11-21_財產申報表_tmpc7221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="195">
   <si>
     <t>name</t>
   </si>
@@ -528,27 +528,27 @@
     <t>黃金</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>定期终生壽險</t>
   </si>
   <si>
-    <t>保險期間:79.12.21至終身繳費期間20年年繳152371元</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>312還本終身保險</t>
   </si>
   <si>
-    <t>312.還本终身保險</t>
+    <t>312還本终身保險</t>
   </si>
   <si>
     <t>富貴保本投資鏈結壽險(甲型)</t>
@@ -585,55 +585,13 @@
     <t>安聯人壽精選普爾</t>
   </si>
   <si>
-    <t>保險期間:99.4.6至105.4.6六年年繳165700元</t>
-  </si>
-  <si>
-    <t>保險期間:99.4.6至105.4.6六年年繳163800元</t>
-  </si>
-  <si>
-    <t>保險期間：97.6.12至103.6.12六年年繳283602元</t>
-  </si>
-  <si>
-    <t>保險期間：97.6.12至103.6.12六年年繳2.82858元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至104.2.2六年年缴98280元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至104.2.2六年年缴99420元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至终身缴費期間20年年繳3480元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至终身繳費期間20年年繳2380元</t>
-  </si>
-  <si>
-    <t>保險期間:94.9.5至153.9.5月繳20000元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身繳費期間20年年繳90734元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至终身繳費期間20年年繳91745元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身繳費期間20年年缴88248元</t>
-  </si>
-  <si>
-    <t>保險期:94.8.26至101.9.13躉繳100萬</t>
-  </si>
-  <si>
-    <t>保險期:98.2.26至108.2.26繳費期間10年年繳266500元</t>
-  </si>
-  <si>
-    <t>保險期:98.2.26至108.2.26缴費期間10年年繳114780元</t>
-  </si>
-  <si>
-    <t>96.3.29至106.3.29躉繳100萬</t>
-  </si>
-  <si>
-    <t>97.6.19至164.6.19躉繳1788703元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -646,6 +604,9 @@
   </si>
   <si>
     <t>94年05月25日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -5329,49 +5290,85 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>175</v>
@@ -5382,13 +5379,31 @@
       <c r="E3" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>175</v>
@@ -5397,15 +5412,33 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>176</v>
@@ -5414,15 +5447,33 @@
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>176</v>
@@ -5431,15 +5482,33 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>175</v>
@@ -5448,15 +5517,33 @@
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>175</v>
@@ -5465,15 +5552,33 @@
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>177</v>
@@ -5482,15 +5587,33 @@
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>178</v>
@@ -5499,15 +5622,33 @@
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>179</v>
@@ -5516,15 +5657,33 @@
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>180</v>
@@ -5533,15 +5692,33 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>180</v>
@@ -5550,15 +5727,33 @@
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>181</v>
@@ -5567,15 +5762,33 @@
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>182</v>
@@ -5584,15 +5797,33 @@
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>183</v>
@@ -5601,15 +5832,33 @@
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>184</v>
@@ -5618,10 +5867,28 @@
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>170</v>
       </c>
@@ -5635,10 +5902,28 @@
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>171</v>
       </c>
@@ -5652,7 +5937,25 @@
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="2">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5662,76 +5965,139 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6500000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2">
         <v>42861840</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
